--- a/Doc/CS673_ProgressReport_team2.xlsx
+++ b/Doc/CS673_ProgressReport_team2.xlsx
@@ -7,22 +7,23 @@
     <sheet state="visible" name="projectcontribution" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="studentName" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="BenoitClemenceau" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="BharatGogineni" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="TainaConde" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="RuiqiChang" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="ChinmayBhelke" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="BharatGogineni" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="TainaConde" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="RuiqiChang" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mi2MFVmjQi5+nkBo8gBT0zo0rgSSA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mhMSXUS5cCD/bY5Dljtr+KpycjQ1Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -271,6 +272,43 @@
     <t>1 - Set up test environment
 2 - Start implementing QA metrics
 3 - Start writing tests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Your Lead Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: QA Leader</t>
+    </r>
+  </si>
+  <si>
+    <t>0 -Learned about Risk Management and Authentication
+1 - Defined high level non functional requirements
+3 - Launched starter project and implemented beginning logic and user flow , planning for all infra involved
+6 - set up git t dependencies , launch initial project build for frontend
+7 - Perform risk analysis document , test started project , complete git changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPPP Risk Assessment , Contributions to sections from SPPP for Team </t>
+  </si>
+  <si>
+    <t>1. Had to get familiar with Risk Management Principles
+2. No other major issuies</t>
+  </si>
+  <si>
+    <t>1 - Start Implementing CSS , HTML , JS for Project 
+2 - Implemented Routes and push development branches to git
+3 - Set up tasks on PivotalTracker 
+4 - Set up server on Backend and set up API Routes</t>
   </si>
   <si>
     <r>
@@ -578,6 +616,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -12439,7 +12481,7 @@
     <col customWidth="1" min="17" max="17" width="23.5"/>
     <col customWidth="1" min="18" max="18" width="17.63"/>
     <col customWidth="1" min="19" max="19" width="6.25"/>
-    <col customWidth="1" min="20" max="22" width="10.75"/>
+    <col customWidth="1" min="20" max="20" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -12465,8 +12507,6 @@
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -12486,8 +12526,6 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -12548,12 +12586,6 @@
         <v>51</v>
       </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="19">
@@ -12564,11 +12596,11 @@
       </c>
       <c r="C4" s="19">
         <f>D4+E4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="19">
         <f>sum(G4:N4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="22">
         <v>4.0</v>
@@ -12577,43 +12609,35 @@
         <v>65</v>
       </c>
       <c r="G4" s="22">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="22">
-        <v>2.0</v>
-      </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="22">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="19"/>
       <c r="O4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="22" t="s">
+      <c r="P4" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="Q4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="S4" s="22">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="6"/>
@@ -12630,8 +12654,6 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="G6" s="6"/>
@@ -12648,8 +12670,6 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="G7" s="6"/>
@@ -12666,8 +12686,6 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="G8" s="6"/>
@@ -12684,8 +12702,6 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="G9" s="6"/>
@@ -12702,8 +12718,6 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="G10" s="6"/>
@@ -12720,8 +12734,6 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="G11" s="6"/>
@@ -12738,8 +12750,6 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="G12" s="6"/>
@@ -12756,8 +12766,6 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="G13" s="6"/>
@@ -12774,8 +12782,6 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="G14" s="6"/>
@@ -12792,8 +12798,6 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="G15" s="6"/>
@@ -12810,8 +12814,6 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="G16" s="6"/>
@@ -12828,8 +12830,6 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="G17" s="6"/>
@@ -12846,8 +12846,6 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="G18" s="6"/>
@@ -12864,8 +12862,6 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="G19" s="6"/>
@@ -12882,8 +12878,6 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="G20" s="6"/>
@@ -12900,8 +12894,6 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="G21" s="6"/>
@@ -12918,8 +12910,6 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="G22" s="6"/>
@@ -12936,8 +12926,6 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="G23" s="6"/>
@@ -12954,8 +12942,6 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="G24" s="6"/>
@@ -12972,8 +12958,6 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="G25" s="6"/>
@@ -12990,8 +12974,6 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="G26" s="6"/>
@@ -13008,8 +12990,6 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="G27" s="6"/>
@@ -13026,8 +13006,6 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="G28" s="6"/>
@@ -13044,8 +13022,6 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="G29" s="6"/>
@@ -13062,8 +13038,6 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="G30" s="6"/>
@@ -13080,8 +13054,6 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="G31" s="6"/>
@@ -13098,8 +13070,6 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="G32" s="6"/>
@@ -13116,8 +13086,6 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="G33" s="6"/>
@@ -13134,8 +13102,6 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="G34" s="6"/>
@@ -13152,8 +13118,6 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="G35" s="6"/>
@@ -13170,8 +13134,6 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="G36" s="6"/>
@@ -13188,8 +13150,6 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="G37" s="6"/>
@@ -13206,8 +13166,6 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="G38" s="6"/>
@@ -13224,8 +13182,6 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="G39" s="6"/>
@@ -13242,8 +13198,6 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="G40" s="6"/>
@@ -13260,8 +13214,6 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="G41" s="6"/>
@@ -13278,8 +13230,6 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="G42" s="6"/>
@@ -13296,8 +13246,6 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="G43" s="6"/>
@@ -13314,8 +13262,6 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="G44" s="6"/>
@@ -13332,8 +13278,6 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="G45" s="6"/>
@@ -13350,8 +13294,6 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="G46" s="6"/>
@@ -13368,8 +13310,6 @@
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="G47" s="6"/>
@@ -13386,8 +13326,6 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="G48" s="6"/>
@@ -13404,8 +13342,6 @@
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="G49" s="6"/>
@@ -13422,8 +13358,6 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="G50" s="6"/>
@@ -13440,8 +13374,6 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="G51" s="6"/>
@@ -13458,8 +13390,6 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="G52" s="6"/>
@@ -13476,8 +13406,6 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="G53" s="6"/>
@@ -13494,8 +13422,6 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="G54" s="6"/>
@@ -13512,8 +13438,6 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="G55" s="6"/>
@@ -13530,8 +13454,6 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="G56" s="6"/>
@@ -13548,8 +13470,6 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="G57" s="6"/>
@@ -13566,8 +13486,6 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="G58" s="6"/>
@@ -13584,8 +13502,6 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="G59" s="6"/>
@@ -13602,8 +13518,6 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="G60" s="6"/>
@@ -13620,8 +13534,6 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="G61" s="6"/>
@@ -13638,8 +13550,6 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="G62" s="6"/>
@@ -13656,8 +13566,6 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="G63" s="6"/>
@@ -13674,8 +13582,6 @@
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="G64" s="6"/>
@@ -13692,8 +13598,6 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="G65" s="6"/>
@@ -13710,8 +13614,6 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="G66" s="6"/>
@@ -13728,8 +13630,6 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="G67" s="6"/>
@@ -13746,8 +13646,6 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="G68" s="6"/>
@@ -13764,8 +13662,6 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="G69" s="6"/>
@@ -13782,8 +13678,6 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="G70" s="6"/>
@@ -13800,8 +13694,6 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="G71" s="6"/>
@@ -13818,8 +13710,6 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="G72" s="6"/>
@@ -13836,8 +13726,6 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="G73" s="6"/>
@@ -13854,8 +13742,6 @@
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="G74" s="6"/>
@@ -13872,8 +13758,6 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="G75" s="6"/>
@@ -13890,8 +13774,6 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="G76" s="6"/>
@@ -13908,8 +13790,6 @@
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="G77" s="6"/>
@@ -13926,8 +13806,6 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="G78" s="6"/>
@@ -13944,8 +13822,6 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="G79" s="6"/>
@@ -13962,8 +13838,6 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="G80" s="6"/>
@@ -13980,8 +13854,6 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="G81" s="6"/>
@@ -13998,8 +13870,6 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="G82" s="6"/>
@@ -14016,8 +13886,6 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="G83" s="6"/>
@@ -14034,8 +13902,6 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="G84" s="6"/>
@@ -14052,8 +13918,6 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="G85" s="6"/>
@@ -14070,8 +13934,6 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="G86" s="6"/>
@@ -14088,8 +13950,6 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="G87" s="6"/>
@@ -14106,8 +13966,6 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="G88" s="6"/>
@@ -14124,8 +13982,6 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="G89" s="6"/>
@@ -14142,8 +13998,6 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="G90" s="6"/>
@@ -14160,8 +14014,6 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="G91" s="6"/>
@@ -14178,8 +14030,6 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="G92" s="6"/>
@@ -14196,8 +14046,6 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="G93" s="6"/>
@@ -14214,8 +14062,6 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="G94" s="6"/>
@@ -14232,8 +14078,6 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="G95" s="6"/>
@@ -14250,8 +14094,6 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="G96" s="6"/>
@@ -14268,8 +14110,6 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="G97" s="6"/>
@@ -14286,8 +14126,6 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="G98" s="6"/>
@@ -14304,8 +14142,6 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="G99" s="6"/>
@@ -14322,8 +14158,6 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="G100" s="6"/>
@@ -14340,8 +14174,6 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="G101" s="6"/>
@@ -14358,8 +14190,6 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="G102" s="6"/>
@@ -14376,8 +14206,6 @@
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="G103" s="6"/>
@@ -14394,8 +14222,6 @@
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="G104" s="6"/>
@@ -14412,8 +14238,6 @@
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="G105" s="6"/>
@@ -14430,8 +14254,6 @@
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="6"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="G106" s="6"/>
@@ -14448,8 +14270,6 @@
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
-      <c r="U106" s="6"/>
-      <c r="V106" s="6"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="G107" s="6"/>
@@ -14466,8 +14286,6 @@
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="G108" s="6"/>
@@ -14484,8 +14302,6 @@
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="G109" s="6"/>
@@ -14502,8 +14318,6 @@
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="G110" s="6"/>
@@ -14520,8 +14334,6 @@
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="G111" s="6"/>
@@ -14538,8 +14350,6 @@
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="G112" s="6"/>
@@ -14556,8 +14366,6 @@
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="G113" s="6"/>
@@ -14574,8 +14382,6 @@
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="G114" s="6"/>
@@ -14592,8 +14398,6 @@
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="G115" s="6"/>
@@ -14610,8 +14414,6 @@
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="6"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="G116" s="6"/>
@@ -14628,8 +14430,6 @@
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="6"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="G117" s="6"/>
@@ -14646,8 +14446,6 @@
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-      <c r="V117" s="6"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="G118" s="6"/>
@@ -14664,8 +14462,6 @@
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
-      <c r="U118" s="6"/>
-      <c r="V118" s="6"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="G119" s="6"/>
@@ -14682,8 +14478,6 @@
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="6"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="G120" s="6"/>
@@ -14700,8 +14494,6 @@
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="6"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="G121" s="6"/>
@@ -14718,8 +14510,6 @@
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
-      <c r="U121" s="6"/>
-      <c r="V121" s="6"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="G122" s="6"/>
@@ -14736,8 +14526,6 @@
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
-      <c r="U122" s="6"/>
-      <c r="V122" s="6"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="G123" s="6"/>
@@ -14754,8 +14542,6 @@
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="6"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="G124" s="6"/>
@@ -14772,8 +14558,6 @@
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="G125" s="6"/>
@@ -14790,8 +14574,6 @@
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
-      <c r="U125" s="6"/>
-      <c r="V125" s="6"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="G126" s="6"/>
@@ -14808,8 +14590,6 @@
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
-      <c r="U126" s="6"/>
-      <c r="V126" s="6"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="G127" s="6"/>
@@ -14826,8 +14606,6 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
-      <c r="U127" s="6"/>
-      <c r="V127" s="6"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="G128" s="6"/>
@@ -14844,8 +14622,6 @@
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
-      <c r="U128" s="6"/>
-      <c r="V128" s="6"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="G129" s="6"/>
@@ -14862,8 +14638,6 @@
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="G130" s="6"/>
@@ -14880,8 +14654,6 @@
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
-      <c r="U130" s="6"/>
-      <c r="V130" s="6"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="G131" s="6"/>
@@ -14898,8 +14670,6 @@
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
-      <c r="U131" s="6"/>
-      <c r="V131" s="6"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="G132" s="6"/>
@@ -14916,8 +14686,6 @@
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="6"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="G133" s="6"/>
@@ -14934,8 +14702,6 @@
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="6"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="G134" s="6"/>
@@ -14952,8 +14718,6 @@
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="6"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="G135" s="6"/>
@@ -14970,8 +14734,6 @@
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="G136" s="6"/>
@@ -14988,8 +14750,6 @@
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="6"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="G137" s="6"/>
@@ -15006,8 +14766,6 @@
       <c r="R137" s="6"/>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
-      <c r="U137" s="6"/>
-      <c r="V137" s="6"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="G138" s="6"/>
@@ -15024,8 +14782,6 @@
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
-      <c r="U138" s="6"/>
-      <c r="V138" s="6"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="G139" s="6"/>
@@ -15042,8 +14798,6 @@
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="G140" s="6"/>
@@ -15060,8 +14814,6 @@
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
-      <c r="U140" s="6"/>
-      <c r="V140" s="6"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="G141" s="6"/>
@@ -15078,8 +14830,6 @@
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
       <c r="T141" s="6"/>
-      <c r="U141" s="6"/>
-      <c r="V141" s="6"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="G142" s="6"/>
@@ -15096,8 +14846,6 @@
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
-      <c r="U142" s="6"/>
-      <c r="V142" s="6"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="G143" s="6"/>
@@ -15114,8 +14862,6 @@
       <c r="R143" s="6"/>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
-      <c r="U143" s="6"/>
-      <c r="V143" s="6"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="G144" s="6"/>
@@ -15132,8 +14878,6 @@
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
-      <c r="U144" s="6"/>
-      <c r="V144" s="6"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="G145" s="6"/>
@@ -15150,8 +14894,6 @@
       <c r="R145" s="6"/>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
-      <c r="U145" s="6"/>
-      <c r="V145" s="6"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="G146" s="6"/>
@@ -15168,8 +14910,6 @@
       <c r="R146" s="6"/>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
-      <c r="U146" s="6"/>
-      <c r="V146" s="6"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="G147" s="6"/>
@@ -15186,8 +14926,6 @@
       <c r="R147" s="6"/>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
-      <c r="U147" s="6"/>
-      <c r="V147" s="6"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="G148" s="6"/>
@@ -15204,8 +14942,6 @@
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="G149" s="6"/>
@@ -15222,8 +14958,6 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="T149" s="6"/>
-      <c r="U149" s="6"/>
-      <c r="V149" s="6"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="G150" s="6"/>
@@ -15240,8 +14974,6 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="6"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="G151" s="6"/>
@@ -15258,8 +14990,6 @@
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
       <c r="T151" s="6"/>
-      <c r="U151" s="6"/>
-      <c r="V151" s="6"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="G152" s="6"/>
@@ -15276,8 +15006,6 @@
       <c r="R152" s="6"/>
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
-      <c r="U152" s="6"/>
-      <c r="V152" s="6"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="G153" s="6"/>
@@ -15294,8 +15022,6 @@
       <c r="R153" s="6"/>
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
-      <c r="U153" s="6"/>
-      <c r="V153" s="6"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="G154" s="6"/>
@@ -15312,8 +15038,6 @@
       <c r="R154" s="6"/>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
-      <c r="U154" s="6"/>
-      <c r="V154" s="6"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="G155" s="6"/>
@@ -15330,8 +15054,6 @@
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
-      <c r="U155" s="6"/>
-      <c r="V155" s="6"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="G156" s="6"/>
@@ -15348,8 +15070,6 @@
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="T156" s="6"/>
-      <c r="U156" s="6"/>
-      <c r="V156" s="6"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="G157" s="6"/>
@@ -15366,8 +15086,6 @@
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="T157" s="6"/>
-      <c r="U157" s="6"/>
-      <c r="V157" s="6"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="G158" s="6"/>
@@ -15384,8 +15102,6 @@
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
       <c r="T158" s="6"/>
-      <c r="U158" s="6"/>
-      <c r="V158" s="6"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="G159" s="6"/>
@@ -15402,8 +15118,6 @@
       <c r="R159" s="6"/>
       <c r="S159" s="6"/>
       <c r="T159" s="6"/>
-      <c r="U159" s="6"/>
-      <c r="V159" s="6"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="G160" s="6"/>
@@ -15420,8 +15134,6 @@
       <c r="R160" s="6"/>
       <c r="S160" s="6"/>
       <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="G161" s="6"/>
@@ -15438,8 +15150,6 @@
       <c r="R161" s="6"/>
       <c r="S161" s="6"/>
       <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="G162" s="6"/>
@@ -15456,8 +15166,6 @@
       <c r="R162" s="6"/>
       <c r="S162" s="6"/>
       <c r="T162" s="6"/>
-      <c r="U162" s="6"/>
-      <c r="V162" s="6"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="G163" s="6"/>
@@ -15474,8 +15182,6 @@
       <c r="R163" s="6"/>
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="G164" s="6"/>
@@ -15492,8 +15198,6 @@
       <c r="R164" s="6"/>
       <c r="S164" s="6"/>
       <c r="T164" s="6"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="6"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="G165" s="6"/>
@@ -15510,8 +15214,6 @@
       <c r="R165" s="6"/>
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
-      <c r="U165" s="6"/>
-      <c r="V165" s="6"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="G166" s="6"/>
@@ -15528,8 +15230,6 @@
       <c r="R166" s="6"/>
       <c r="S166" s="6"/>
       <c r="T166" s="6"/>
-      <c r="U166" s="6"/>
-      <c r="V166" s="6"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="G167" s="6"/>
@@ -15546,8 +15246,6 @@
       <c r="R167" s="6"/>
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
-      <c r="U167" s="6"/>
-      <c r="V167" s="6"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="G168" s="6"/>
@@ -15564,8 +15262,6 @@
       <c r="R168" s="6"/>
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
-      <c r="U168" s="6"/>
-      <c r="V168" s="6"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="G169" s="6"/>
@@ -15582,8 +15278,6 @@
       <c r="R169" s="6"/>
       <c r="S169" s="6"/>
       <c r="T169" s="6"/>
-      <c r="U169" s="6"/>
-      <c r="V169" s="6"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="G170" s="6"/>
@@ -15600,8 +15294,6 @@
       <c r="R170" s="6"/>
       <c r="S170" s="6"/>
       <c r="T170" s="6"/>
-      <c r="U170" s="6"/>
-      <c r="V170" s="6"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="G171" s="6"/>
@@ -15618,8 +15310,6 @@
       <c r="R171" s="6"/>
       <c r="S171" s="6"/>
       <c r="T171" s="6"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="6"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="G172" s="6"/>
@@ -15636,8 +15326,6 @@
       <c r="R172" s="6"/>
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="G173" s="6"/>
@@ -15654,8 +15342,6 @@
       <c r="R173" s="6"/>
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
-      <c r="U173" s="6"/>
-      <c r="V173" s="6"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="G174" s="6"/>
@@ -15672,8 +15358,6 @@
       <c r="R174" s="6"/>
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="6"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="G175" s="6"/>
@@ -15690,8 +15374,6 @@
       <c r="R175" s="6"/>
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="6"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="G176" s="6"/>
@@ -15708,8 +15390,6 @@
       <c r="R176" s="6"/>
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="G177" s="6"/>
@@ -15726,8 +15406,6 @@
       <c r="R177" s="6"/>
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="G178" s="6"/>
@@ -15744,8 +15422,6 @@
       <c r="R178" s="6"/>
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="6"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="G179" s="6"/>
@@ -15762,8 +15438,6 @@
       <c r="R179" s="6"/>
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="G180" s="6"/>
@@ -15780,8 +15454,6 @@
       <c r="R180" s="6"/>
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="G181" s="6"/>
@@ -15798,8 +15470,6 @@
       <c r="R181" s="6"/>
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
-      <c r="U181" s="6"/>
-      <c r="V181" s="6"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="G182" s="6"/>
@@ -15816,8 +15486,6 @@
       <c r="R182" s="6"/>
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
-      <c r="U182" s="6"/>
-      <c r="V182" s="6"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="G183" s="6"/>
@@ -15834,8 +15502,6 @@
       <c r="R183" s="6"/>
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="6"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="G184" s="6"/>
@@ -15852,8 +15518,6 @@
       <c r="R184" s="6"/>
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="G185" s="6"/>
@@ -15870,8 +15534,6 @@
       <c r="R185" s="6"/>
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
-      <c r="U185" s="6"/>
-      <c r="V185" s="6"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="G186" s="6"/>
@@ -15888,8 +15550,6 @@
       <c r="R186" s="6"/>
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="6"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="G187" s="6"/>
@@ -15906,8 +15566,6 @@
       <c r="R187" s="6"/>
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
-      <c r="U187" s="6"/>
-      <c r="V187" s="6"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="G188" s="6"/>
@@ -15924,8 +15582,6 @@
       <c r="R188" s="6"/>
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
-      <c r="U188" s="6"/>
-      <c r="V188" s="6"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="G189" s="6"/>
@@ -15942,8 +15598,6 @@
       <c r="R189" s="6"/>
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="G190" s="6"/>
@@ -15960,8 +15614,6 @@
       <c r="R190" s="6"/>
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
-      <c r="U190" s="6"/>
-      <c r="V190" s="6"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="G191" s="6"/>
@@ -15978,8 +15630,6 @@
       <c r="R191" s="6"/>
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
-      <c r="V191" s="6"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="G192" s="6"/>
@@ -15996,8 +15646,6 @@
       <c r="R192" s="6"/>
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
-      <c r="U192" s="6"/>
-      <c r="V192" s="6"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="G193" s="6"/>
@@ -16014,8 +15662,6 @@
       <c r="R193" s="6"/>
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
-      <c r="U193" s="6"/>
-      <c r="V193" s="6"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="G194" s="6"/>
@@ -16032,8 +15678,6 @@
       <c r="R194" s="6"/>
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
-      <c r="U194" s="6"/>
-      <c r="V194" s="6"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="G195" s="6"/>
@@ -16050,8 +15694,6 @@
       <c r="R195" s="6"/>
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
-      <c r="U195" s="6"/>
-      <c r="V195" s="6"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="G196" s="6"/>
@@ -16068,8 +15710,6 @@
       <c r="R196" s="6"/>
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
-      <c r="U196" s="6"/>
-      <c r="V196" s="6"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="G197" s="6"/>
@@ -16086,8 +15726,6 @@
       <c r="R197" s="6"/>
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
-      <c r="U197" s="6"/>
-      <c r="V197" s="6"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="G198" s="6"/>
@@ -16104,8 +15742,6 @@
       <c r="R198" s="6"/>
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
-      <c r="U198" s="6"/>
-      <c r="V198" s="6"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="G199" s="6"/>
@@ -16122,8 +15758,6 @@
       <c r="R199" s="6"/>
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
-      <c r="U199" s="6"/>
-      <c r="V199" s="6"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="G200" s="6"/>
@@ -16140,8 +15774,6 @@
       <c r="R200" s="6"/>
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
-      <c r="U200" s="6"/>
-      <c r="V200" s="6"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="G201" s="6"/>
@@ -16158,8 +15790,6 @@
       <c r="R201" s="6"/>
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
-      <c r="U201" s="6"/>
-      <c r="V201" s="6"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="G202" s="6"/>
@@ -16176,8 +15806,6 @@
       <c r="R202" s="6"/>
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
-      <c r="U202" s="6"/>
-      <c r="V202" s="6"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="G203" s="6"/>
@@ -16194,8 +15822,6 @@
       <c r="R203" s="6"/>
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-      <c r="V203" s="6"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="G204" s="6"/>
@@ -16212,8 +15838,6 @@
       <c r="R204" s="6"/>
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
-      <c r="U204" s="6"/>
-      <c r="V204" s="6"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="G205" s="6"/>
@@ -16230,8 +15854,6 @@
       <c r="R205" s="6"/>
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-      <c r="V205" s="6"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="G206" s="6"/>
@@ -16248,8 +15870,6 @@
       <c r="R206" s="6"/>
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
-      <c r="U206" s="6"/>
-      <c r="V206" s="6"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="G207" s="6"/>
@@ -16266,8 +15886,6 @@
       <c r="R207" s="6"/>
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
-      <c r="U207" s="6"/>
-      <c r="V207" s="6"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="G208" s="6"/>
@@ -16284,8 +15902,6 @@
       <c r="R208" s="6"/>
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
-      <c r="U208" s="6"/>
-      <c r="V208" s="6"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="G209" s="6"/>
@@ -16302,8 +15918,6 @@
       <c r="R209" s="6"/>
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
-      <c r="U209" s="6"/>
-      <c r="V209" s="6"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="G210" s="6"/>
@@ -16320,8 +15934,6 @@
       <c r="R210" s="6"/>
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
-      <c r="U210" s="6"/>
-      <c r="V210" s="6"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="G211" s="6"/>
@@ -16338,8 +15950,6 @@
       <c r="R211" s="6"/>
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
-      <c r="U211" s="6"/>
-      <c r="V211" s="6"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="G212" s="6"/>
@@ -16356,8 +15966,6 @@
       <c r="R212" s="6"/>
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
-      <c r="U212" s="6"/>
-      <c r="V212" s="6"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="G213" s="6"/>
@@ -16374,8 +15982,6 @@
       <c r="R213" s="6"/>
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
-      <c r="U213" s="6"/>
-      <c r="V213" s="6"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="G214" s="6"/>
@@ -16392,8 +15998,6 @@
       <c r="R214" s="6"/>
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
-      <c r="U214" s="6"/>
-      <c r="V214" s="6"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="G215" s="6"/>
@@ -16410,8 +16014,6 @@
       <c r="R215" s="6"/>
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
-      <c r="U215" s="6"/>
-      <c r="V215" s="6"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="G216" s="6"/>
@@ -16428,8 +16030,6 @@
       <c r="R216" s="6"/>
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
-      <c r="U216" s="6"/>
-      <c r="V216" s="6"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="G217" s="6"/>
@@ -16446,8 +16046,6 @@
       <c r="R217" s="6"/>
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
-      <c r="U217" s="6"/>
-      <c r="V217" s="6"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="G218" s="6"/>
@@ -16464,8 +16062,6 @@
       <c r="R218" s="6"/>
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
-      <c r="U218" s="6"/>
-      <c r="V218" s="6"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="G219" s="6"/>
@@ -16482,8 +16078,6 @@
       <c r="R219" s="6"/>
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
-      <c r="U219" s="6"/>
-      <c r="V219" s="6"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="G220" s="6"/>
@@ -16500,8 +16094,6 @@
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
-      <c r="U220" s="6"/>
-      <c r="V220" s="6"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -17350,7 +16942,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -17444,48 +17036,48 @@
       </c>
       <c r="C4" s="19">
         <f>D4+E4</f>
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="19">
         <f>sum(G4:N4)</f>
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="E4" s="22">
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" s="22">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="22">
+        <v>2.0</v>
+      </c>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M4" s="22">
-        <v>3.0</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="19">
         <v>0.5</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="S4" s="22">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -22230,7 +21822,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -22324,6 +21916,4886 @@
       </c>
       <c r="C4" s="19">
         <f>D4+E4</f>
+        <v>14.5</v>
+      </c>
+      <c r="D4" s="19">
+        <f>sum(G4:N4)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6"/>
+      <c r="V126" s="6"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6"/>
+      <c r="V128" s="6"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="6"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+      <c r="V131" s="6"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+      <c r="V133" s="6"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+      <c r="U134" s="6"/>
+      <c r="V134" s="6"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+      <c r="U136" s="6"/>
+      <c r="V136" s="6"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+      <c r="U137" s="6"/>
+      <c r="V137" s="6"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="6"/>
+      <c r="V138" s="6"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6"/>
+      <c r="V139" s="6"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="6"/>
+      <c r="V140" s="6"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+      <c r="U141" s="6"/>
+      <c r="V141" s="6"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6"/>
+      <c r="V143" s="6"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="6"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="6"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="6"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="6"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="6"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="6"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="6"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="6"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="6"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="6"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6"/>
+      <c r="V169" s="6"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="6"/>
+      <c r="V170" s="6"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6"/>
+      <c r="V173" s="6"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="6"/>
+      <c r="V175" s="6"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+      <c r="U176" s="6"/>
+      <c r="V176" s="6"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="6"/>
+      <c r="V177" s="6"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+      <c r="U178" s="6"/>
+      <c r="V178" s="6"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6"/>
+      <c r="V180" s="6"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="6"/>
+      <c r="V181" s="6"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+      <c r="U182" s="6"/>
+      <c r="V182" s="6"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+      <c r="U183" s="6"/>
+      <c r="V183" s="6"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="6"/>
+      <c r="V185" s="6"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+      <c r="U187" s="6"/>
+      <c r="V187" s="6"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="6"/>
+      <c r="U189" s="6"/>
+      <c r="V189" s="6"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
+      <c r="U190" s="6"/>
+      <c r="V190" s="6"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
+      <c r="U191" s="6"/>
+      <c r="V191" s="6"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+      <c r="U192" s="6"/>
+      <c r="V192" s="6"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
+      <c r="U193" s="6"/>
+      <c r="V193" s="6"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+      <c r="U194" s="6"/>
+      <c r="V194" s="6"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="6"/>
+      <c r="V195" s="6"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="6"/>
+      <c r="V196" s="6"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+      <c r="U197" s="6"/>
+      <c r="V197" s="6"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="6"/>
+      <c r="V199" s="6"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+      <c r="U201" s="6"/>
+      <c r="V201" s="6"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="6"/>
+      <c r="V202" s="6"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="U203" s="6"/>
+      <c r="V203" s="6"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+      <c r="U204" s="6"/>
+      <c r="V204" s="6"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="U205" s="6"/>
+      <c r="V205" s="6"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+      <c r="U206" s="6"/>
+      <c r="V206" s="6"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="U207" s="6"/>
+      <c r="V207" s="6"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+      <c r="U208" s="6"/>
+      <c r="V208" s="6"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+      <c r="U209" s="6"/>
+      <c r="V209" s="6"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+      <c r="U210" s="6"/>
+      <c r="V210" s="6"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+      <c r="U211" s="6"/>
+      <c r="V211" s="6"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+      <c r="U212" s="6"/>
+      <c r="V212" s="6"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+      <c r="U213" s="6"/>
+      <c r="V213" s="6"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="6"/>
+      <c r="U214" s="6"/>
+      <c r="V214" s="6"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
+      <c r="U215" s="6"/>
+      <c r="V215" s="6"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+      <c r="U216" s="6"/>
+      <c r="V216" s="6"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="6"/>
+      <c r="U219" s="6"/>
+      <c r="V219" s="6"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="6"/>
+      <c r="V220" s="6"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.0"/>
+    <col customWidth="1" min="2" max="2" width="10.13"/>
+    <col customWidth="1" min="3" max="3" width="7.25"/>
+    <col customWidth="1" min="4" max="4" width="8.38"/>
+    <col customWidth="1" min="5" max="5" width="7.13"/>
+    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="7" max="7" width="5.63"/>
+    <col customWidth="1" min="8" max="8" width="5.75"/>
+    <col customWidth="1" min="9" max="9" width="5.88"/>
+    <col customWidth="1" min="10" max="10" width="6.25"/>
+    <col customWidth="1" min="11" max="11" width="5.75"/>
+    <col customWidth="1" min="12" max="13" width="6.0"/>
+    <col customWidth="1" min="14" max="14" width="5.63"/>
+    <col customWidth="1" min="15" max="15" width="24.88"/>
+    <col customWidth="1" min="16" max="16" width="19.63"/>
+    <col customWidth="1" min="17" max="17" width="23.5"/>
+    <col customWidth="1" min="18" max="18" width="17.63"/>
+    <col customWidth="1" min="19" max="19" width="6.25"/>
+    <col customWidth="1" min="20" max="22" width="10.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" ht="39.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19">
+        <f>D4+E4</f>
         <v>9</v>
       </c>
       <c r="D4" s="19">
@@ -22334,7 +26806,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G4" s="22">
         <v>2.0</v>
@@ -22351,16 +26823,16 @@
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="S4" s="22">
         <v>15.0</v>

--- a/Doc/CS673_ProgressReport_team2.xlsx
+++ b/Doc/CS673_ProgressReport_team2.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Summary-GroupIterationProgress" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="projectcontribution" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="studentName" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="studentName" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="BenoitClemenceau" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ChinmayBhelke" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="BharatGogineni" sheetId="6" r:id="rId9"/>
@@ -16,14 +16,37 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mhMSXUS5cCD/bY5Dljtr+KpycjQ1Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mj3rDJPgX2sbcxjJmQSusjOrM876w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="F4">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAZbucLfc
+Yuting Zhang    (2022-05-18 20:48:06)
+how much time did you spend on type 3 tasks?</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miDMMbRUQZiIJDn+yItg6HEiCJeBQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="143">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -107,6 +130,33 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>05/17-05/23</t>
+  </si>
+  <si>
+    <t>Completion of base framework for backend and frontend</t>
+  </si>
+  <si>
+    <t>Integration issues with auth0 implementation</t>
+  </si>
+  <si>
+    <t>Learning for ndoejs framework</t>
+  </si>
+  <si>
+    <t>Faster share of resources</t>
+  </si>
+  <si>
+    <t>5/24 - 05/31</t>
+  </si>
+  <si>
+    <t>Integration of Auth0 ,Migrations for database structure</t>
+  </si>
+  <si>
+    <t>Dependency issues with nodejsjs and auth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync up timing </t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -265,13 +315,37 @@
 2. Had to figure out why I could't use my Git client</t>
   </si>
   <si>
-    <t>1. Have a good general understanding of it know, need to start implementing tests to confront it to real-life scenarios
+    <t>1. Have a good general understanding of it now, need to start implementing tests to confront it to real-life scenarios
 2. Found why, solved</t>
   </si>
   <si>
-    <t>1 - Set up test environment
-2 - Start implementing QA metrics
-3 - Start writing tests</t>
+    <t>4 - Start writing tests
+5 - Start implementing QA metrics
+6 - Set up test environment</t>
+  </si>
+  <si>
+    <t>0 - studied course material, did quiz 1 and lab 2
+1 - wrote 2 user stories (Add a Job to track, Update Job)
+4 - did research on Selenium and started playing with unit tests
+5 - caught up weekly meeting, read meeting minutes and written reports from my teammates</t>
+  </si>
+  <si>
+    <t>5 - couldn't go to the weekly meeting because was at the graduation ceremony</t>
+  </si>
+  <si>
+    <t>5 - caught up</t>
+  </si>
+  <si>
+    <t>0 - did more research about the different testing frameworks and which one would be best with our current stack, learned React components unit testing
+4 - Set up Jest testing framework for front-end + back-end</t>
+  </si>
+  <si>
+    <t>Did STD
+Updated SPPP</t>
+  </si>
+  <si>
+    <t>Write tests
+Setup Continuous Testing</t>
   </si>
   <si>
     <r>
@@ -305,10 +379,68 @@
 2. No other major issuies</t>
   </si>
   <si>
+    <t>1. Have a good general understanding of it know, need to start implementing tests to confront it to real-life scenarios
+2. Found why, solved</t>
+  </si>
+  <si>
     <t>1 - Start Implementing CSS , HTML , JS for Project 
 2 - Implemented Routes and push development branches to git
 3 - Set up tasks on PivotalTracker 
 4 - Set up server on Backend and set up API Routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -  Did some learning and Practice with Redux Toolkit Caching and Optimistic Updates and tested some REST routes and read Class Modules Planned for Next Project Iteration Deliveable and completed Quiz 1 and Lab 2
+1 - Did Analysis on Required Components and Class Entity Analysis for Objects for the application
+2 - Completed System Design Work and drafted a high level design of the flow of the application and the system
+3 - Implemented sample functionality for Auth and implemented Caching and some frontend logic for the application. Setup the backend server and implemented JWT authentication from frontend to backend
+4 - Tested some REST Routes and tested all of the implementation efforts I was involved with
+5 - Connected with some other teammates and collaborated on the Dev environment and planned next work to be done
+6 - Completed Risk Analysis Document and added some risk items and provided updates on all the items with new insight and set up dev environment Pushed personal branch to Github and launched backend Express server and shared SSH key with everyone 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPPP Risk Assessment , Contributions to sections from SPPP for Team
+Implementation and Design 
+Set up Backend Server in AWS Account , setup NodeJS and mySQL on the Server
+Implemented Auth and setup starter template for Project 
+Created branch on Github and pushed code </t>
+  </si>
+  <si>
+    <t>5 Need to setup better communication with teammates and work together with them to sync everyone on ongoing efforts</t>
+  </si>
+  <si>
+    <t>5 - Created plan to address better plan moving forward</t>
+  </si>
+  <si>
+    <t>2 - Design Backend and help with integration
+3 - Setup and integrate all API Routes and integrate with Frontend Logic , Polish up frontend for Production 
+4 - Learn and implement Unit Tests for Frontend and Backend Code and pick up some testing frameworks</t>
+  </si>
+  <si>
+    <t>05/24-05/30</t>
+  </si>
+  <si>
+    <t>0 - Did some learning on Design Patterns , Caching , Distributed Architecture , and basic unit tests
+2 - Reviewed and analyzed some of the proposals for UI design proposed by the team
+3 - Continued with implementation for frontend and setting up REST API's
+5 - Communicated some future plans and suggestions with the rest of the team and expressed some concerns</t>
+  </si>
+  <si>
+    <t>Contributed to Sections from SDD for System Design , Software Architecture , Key Algorithms , Security Design. Added diagrams and Pseudocode explanations where necessary.
+Completed Risk Assessment document and continued working on the application implementation and design.
+Studied distributed system concepts and design patterns and analyze our application for design patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 All team members were not familiar with each others work and stack so we spent some time syncing on these items5 </t>
+  </si>
+  <si>
+    <t>5 - Adjusted scheduled and meeting plans accordingly to allow for extra time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Add polishing touches and CSS to frontend and focus on backend optimization
+3 - Setup and integrate all API Routes and integrate with Frontend Logic , Polish up frontend for Production 
+4 - Validate unit tests are setup correctly and give correct results
+5- Focus on deployment and making sure users can access application </t>
   </si>
   <si>
     <r>
@@ -343,6 +475,49 @@
     <t>0- Cleaner framework for setting node environment,Research how to perform integration testing
 2 - Create base structure for nodejs environment and mock database
 4 - setup nodejs cleaner</t>
+  </si>
+  <si>
+    <t>0 -  Research and setup zest framework 
+2 - Completed System Design Work on backend and created a level design of the flow of the application and the system
+3 - Setup the backend server and implemented JWT authentication backend
+4 - Tested some REST Routes and tested all of the implementation efforts I was involved with
+5 - Connected with some other teammates and collaborated on the Dev environment and planned next work to be done
+6 - Updated Progress Report and tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPPP Prgress Report, Contributions to sections from SPPP for Team
+Implementation and Design 
+Set up Backend Server in AWS Account , setup NodeJS and mySQL on the Server
+Implemented Auth and setup starter template for Project 
+Created branch on Github and pushed code </t>
+  </si>
+  <si>
+    <t>5 Explaining backend code took a while,Estabilishing migrations was a little harder than initially though</t>
+  </si>
+  <si>
+    <t>5 - Sharing a of resources</t>
+  </si>
+  <si>
+    <t>0 - Did some learning on Design Patterns , Caching , Distributed Architecture , and basic unit tests
+2 - Reviewed /Restructured backend implementations
+3 - Continued with implementation for backend and created up REST API's
+5 - Communicated some future plans and suggestions with the rest of the team and expressed some concerns</t>
+  </si>
+  <si>
+    <t>Contributed to SPPP and Database design.
+Studied distributed system concepts and design patterns and analyze our application for design patterns</t>
+  </si>
+  <si>
+    <t>5 Schedule was hectic this week so didn't have time to sync with team mates</t>
+  </si>
+  <si>
+    <t>5 - Re adjust team meeting time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Full Integration with frontend and backend
+3 - Setup and integrate all API Routes and integrate with Frontend Logic , Add Test cases annd deploy 
+4 - Validate unit tests are setup correctly and give correct results
+5- Focus on deployment and making sure users can access application </t>
   </si>
   <si>
     <r>
@@ -388,6 +563,58 @@
 2 - define design </t>
   </si>
   <si>
+    <t>5/16 - 05/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - study typescript documentation, Class diagrams tools
+1 - write 2 user stories related to user authentication (user log in and create account) and work on lab2 assignment
+2- draw mockups by hand related to user log in UI and create account UI
+5 - Show mockups to team, set an agenda for this week's meeting, write this weeks meeting minutes
+</t>
+  </si>
+  <si>
+    <t>1 - write this week's meeting minutes</t>
+  </si>
+  <si>
+    <t>1 - We couldn't see what was wrong with the calculation on the risk management sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - watch the progress report video again. Found out what was wrong. Concluded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Look for graphic mock up tools for design 
+2 - Design some UI mockups with Ruiq
+3 - start developing the User Authentication with rest of the team
+4 - update SPPP with the rest of the team 
+5 - Write STD and SDD with the rest of the team
+</t>
+  </si>
+  <si>
+    <t>0 - read styled-components documentation, study MVC architecture, study sequence diagrams
+1 - Update requirements in SPP: add color system, followup alert and customizable configurations. Rewrite Usability
+2 - degin UI mockups and write SDD UI design section 
+3 - implement Navbar, JobCard, AddBtn, DeleteBtn, HomePageHeader, UserMenuItem, SortBySelect components in front-end
+4 - Set an agenda for this weeks meeting, show UI design to team members
+7- Update SPP accordingly to feedback: write paragraphs about differences between FollowUp and Huntr</t>
+  </si>
+  <si>
+    <t>1 - write Overview, MVC part in software architecture, UI Design, and Business Logic sections of SDD
+2 - Draw MVC and sequence diagrams on Lucidcharts
+3 - implement front-end components Navbar, JobCard, AddBtn, DeleteBtn, HomePageHeader, UserMenuItem, SortBySelect, NavMenuItems and styles related to these components
+4- Update SPP Related Work section. Update requirements</t>
+  </si>
+  <si>
+    <t>1 - Noticed that our branches names are confusing</t>
+  </si>
+  <si>
+    <t>1 - I will talk to the group to define a naming convention for the branches</t>
+  </si>
+  <si>
+    <t>1 - Change the UI designs to expand card when clicked 
+2 - do more tests for the front end
+3 - implement another feature our team is going to decide on.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -426,9 +653,56 @@
 3. Set a concise meeting agenda </t>
   </si>
   <si>
-    <t>0 - Go over TypeScript because I did have experience on that
+    <t>0 - Go over TypeScript because I did not have experience on that
 1 - Decide the user story
 2 - Decide design and impletation plan and assign to each team member</t>
+  </si>
+  <si>
+    <t>05/16-05/23</t>
+  </si>
+  <si>
+    <t>0-Learning the class material and UI design for web
+1-Wrote two user story( add timeline and add job activities) and  working on lab 2
+2-Try to implement Taina's UI design on Figma which is a vector graphics editor and prototyping tool
+5-Discuss with team member about backend of project. Reflect and revise the problem of first iteration
+6-try to set up AWS</t>
+  </si>
+  <si>
+    <t>Can't get the group AWS instance</t>
+  </si>
+  <si>
+    <t>search more video and ask team member</t>
+  </si>
+  <si>
+    <t>-Complete UI design with Taina
+-Complete SDD 
+-Start work on backend</t>
+  </si>
+  <si>
+    <t>05/23-05/30</t>
+  </si>
+  <si>
+    <t>0-Read the React and TypeScript
+2-Implement Taina's UI Mockups on Figma and the class digram
+5-Discuss with team member about backend of project. Work on the SDD
+6-connected to AWS
+7-demo for the iteration1 project</t>
+  </si>
+  <si>
+    <t>1. SDD: class digram part and UI design
+2. demo video</t>
+  </si>
+  <si>
+    <t>1.did not manage my time well because this week is the first week of my summer intern 
+2.did not communcate with teammember well on backend parts</t>
+  </si>
+  <si>
+    <t>1.arrange my time well and communate with team member more
+2. Weekly meeting will be in the early week day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Work on backend
+</t>
   </si>
 </sst>
 </file>
@@ -483,7 +757,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +768,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,6 +823,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -581,6 +862,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1017,15 +1301,148 @@
       <c r="A5" s="6">
         <v>1.0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>(BenoitClemenceau!C5+ChinmayBhelke!C5+BharatGogineni!C5+TainaConde!C5+RuiqiChang!C5)</f>
+        <v>55</v>
+      </c>
+      <c r="M5" s="8">
+        <f>(BenoitClemenceau!D5+ChinmayBhelke!D5+BharatGogineni!D5+TainaConde!D5+RuiqiChang!D5)</f>
+        <v>58</v>
+      </c>
+      <c r="N5" s="8">
+        <f>(BenoitClemenceau!E5+ChinmayBhelke!E5+BharatGogineni!E5+TainaConde!E5+RuiqiChang!E5)</f>
+        <v>31</v>
+      </c>
+      <c r="O5" s="9">
+        <f>(BenoitClemenceau!G5+ChinmayBhelke!G5+BharatGogineni!G5+TainaConde!G5+RuiqiChang!G5)</f>
+        <v>19</v>
+      </c>
+      <c r="P5" s="9">
+        <f>(BenoitClemenceau!H5+ChinmayBhelke!H5+BharatGogineni!H5+TainaConde!H5+RuiqiChang!H5)</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>(BenoitClemenceau!I5+ChinmayBhelke!I5+BharatGogineni!I5+TainaConde!I5+RuiqiChang!I5)</f>
+        <v>6.5</v>
+      </c>
+      <c r="R5" s="9">
+        <f>(BenoitClemenceau!J5+ChinmayBhelke!J5+BharatGogineni!J5+TainaConde!J5+RuiqiChang!J5)</f>
+        <v>6</v>
+      </c>
+      <c r="S5" s="9">
+        <f>(BenoitClemenceau!K5+ChinmayBhelke!K5+BharatGogineni!K5+TainaConde!K5+RuiqiChang!K5)</f>
+        <v>4</v>
+      </c>
+      <c r="T5" s="9">
+        <f>(BenoitClemenceau!L5+ChinmayBhelke!L5+BharatGogineni!L5+TainaConde!L5+RuiqiChang!L5)</f>
+        <v>9.5</v>
+      </c>
+      <c r="U5" s="9">
+        <f>(BenoitClemenceau!M5+ChinmayBhelke!M5+BharatGogineni!M5+TainaConde!M5+RuiqiChang!M5)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6">
         <v>2.0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>(BenoitClemenceau!C6+ChinmayBhelke!C6+BharatGogineni!C6+TainaConde!C6+RuiqiChang!C6)</f>
+        <v>62</v>
+      </c>
+      <c r="M6" s="8">
+        <f>(BenoitClemenceau!D6+ChinmayBhelke!D6+BharatGogineni!D6+TainaConde!D6+RuiqiChang!D6)</f>
+        <v>51</v>
+      </c>
+      <c r="N6" s="8">
+        <f>(BenoitClemenceau!E6+ChinmayBhelke!E6+BharatGogineni!E6+TainaConde!E6+RuiqiChang!E6)</f>
+        <v>34</v>
+      </c>
+      <c r="O6" s="9">
+        <f>(BenoitClemenceau!G6+ChinmayBhelke!G6+BharatGogineni!G6+TainaConde!G6+RuiqiChang!G6)</f>
+        <v>21</v>
+      </c>
+      <c r="P6" s="9">
+        <f>(BenoitClemenceau!H6+ChinmayBhelke!H6+BharatGogineni!H6+TainaConde!H6+RuiqiChang!H6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>(BenoitClemenceau!I6+ChinmayBhelke!I6+BharatGogineni!I6+TainaConde!I6+RuiqiChang!I6)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R6" s="9">
+        <f>(BenoitClemenceau!J6+ChinmayBhelke!J6+BharatGogineni!J6+TainaConde!J6+RuiqiChang!J6)</f>
+        <v>12</v>
+      </c>
+      <c r="S6" s="9">
+        <f>(BenoitClemenceau!K6+ChinmayBhelke!K6+BharatGogineni!K6+TainaConde!K6+RuiqiChang!K6)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="9">
+        <f>(BenoitClemenceau!L6+ChinmayBhelke!L6+BharatGogineni!L6+TainaConde!L6+RuiqiChang!L6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="9">
+        <f>(BenoitClemenceau!M6+ChinmayBhelke!M6+BharatGogineni!M6+TainaConde!M6+RuiqiChang!M6)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6">
@@ -2059,84 +2476,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -3173,70 +3590,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -3260,22 +3677,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -3286,66 +3703,66 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>1.0</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="20">
         <v>3.0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <v>1.0</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20">
         <v>0.5</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="20">
         <v>1.0</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="19">
+      <c r="O4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="20">
         <v>6.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="6"/>
@@ -8055,66 +8472,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -8138,107 +8555,173 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
-        <f>D4+E4</f>
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="19">
-        <f>sum(G4:N4)</f>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>0.5</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="7">
+        <v>2.0</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="7">
+        <v>12.0</v>
+      </c>
       <c r="T5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="7">
+        <v>20.0</v>
+      </c>
       <c r="T6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -12485,66 +12968,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -12568,107 +13051,197 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>0.5</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D6" si="1">G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="7">
+        <v>12.0</v>
+      </c>
       <c r="T5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="7">
+        <v>8.0</v>
+      </c>
       <c r="T6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -16879,7 +17452,8 @@
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16915,70 +17489,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -17002,22 +17576,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -17028,97 +17602,187 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
         <f>D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <f>sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="23">
         <v>1.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="23">
         <v>2.0</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>1.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>0.5</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="22">
+      <c r="O4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="23">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="23">
         <v>8.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D6" si="1">G5+H5+I5+J5+K5+L5+M5+N5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="7">
+        <v>12.0</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="7">
+        <v>8.0</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -21795,70 +22459,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -21882,22 +22546,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -21908,97 +22572,177 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
-        <f>D4+E4</f>
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>14.5</v>
       </c>
-      <c r="D4" s="19">
-        <f>sum(G4:N4)</f>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>10.5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>2.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>3.0</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>0.5</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="O4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="23">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="7">
+        <v>1.0</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="7">
+        <v>12.0</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>0.5</v>
+      </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="N6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="7">
+        <v>15.0</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -26675,70 +27419,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -26762,22 +27506,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -26788,95 +27532,173 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="19">
-        <f>D4+E4</f>
+      <c r="B4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="19">
-        <f>sum(G4:N4)</f>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>4.0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="23">
         <v>2.0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="23">
         <v>2.0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>1.0</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="22">
+      <c r="N4" s="20"/>
+      <c r="O4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="23">
         <v>15.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="A5" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="23">
+        <v>20.0</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="A6" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="23">
+        <v>15.0</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
